--- a/ConcurrencyTest/Thread_Test/java并发编程的艺术/java并发编程的艺术.xlsx
+++ b/ConcurrencyTest/Thread_Test/java并发编程的艺术/java并发编程的艺术.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="第二章" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="part two" sheetId="1" r:id="rId1"/>
+    <sheet name="part three" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -577,7 +577,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>、同步方法块，</a:t>
+            <a:t>、同步代码块，</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
@@ -1233,6 +1233,1748 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>保证引用对象之间的原子性</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="142875"/>
+          <a:ext cx="10915650" cy="10153650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>通信机制：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、共享内存（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、消息传递</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中，堆内存中存储有：实例域、静态域、数组元素。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>局部变量、方法定义参数、异常处理器线程不共享，不存在内存可见性问题，不受内存模型的影响。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>JSR-133</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内存模型</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>happens-before</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>规则</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		程序顺序规则：一个线程中的每个操作，先于该线程中的任意后续操作</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		监视器锁规则：一个锁的解锁，先于随后对这个锁的加锁</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>volatile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>变量规则：对一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>volatile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>域的写，先于任意后续对这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>volatile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>域的读</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		传递性：如果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>先于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，且</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>先于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，那么</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>先于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			*先于要求前一个操作对后一个操作可见且前一个操作按顺序排在第二个操作之前</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>重排序：编译器和处理器为了优化程序性能而对指令序列进行重新排序的一种手段</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>数据依赖性：如果两个操作访问同一个变量，并且两操作中有写操作，此时这两个操作存在数据依赖性。三种类型：写后读、读后写、写后写</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>编译器和处理器不会改变存在数据依赖关系的两个操作的执行顺序（单线程）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>as-if-serial</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：重排序后，单线程程序的执行结果不能被改变。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>处理器和内存之间的数据传递都是通过一系列步骤来完成的，这一系列步骤称为总线事物。分为读事物、写事物。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>总线会同步试图并发使用总线的事物。（把所有处理器对内存的访问以串行化的方式来执行）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>volatile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的特性</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	可见性：总是能看到（任意线程）对这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>volatile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>变量最后的写入</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	原子性：对任意单个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>volatile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>变量的读</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>写具有原子性，但类似于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>volatile++</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>这种复合操作不具有原子性</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>volatile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>写和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>volatile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>读的内存语义：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	线程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>写一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>volatile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>变量，随后线程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>读这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>volatile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>变量，这个过程实质上是线程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>通过主内存向线程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>发送消息。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>锁释放和锁获取的内存语义：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	线程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>释放锁，随后线程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>获取这个锁，这个过程实质上是线程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>通过主内存向线程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>发送消息。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>final</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>域为基础类型</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>final</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>域的重排序规则</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		构造函数对一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>final</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>域的写入，与随后把这个被构造对象的引用赋值给一个引用对象，这两个操作之间不能重排序。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		初次读一个包含</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>final</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>域的引用与随后初次读这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>final</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>域，这两个操作不能重排序。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>final</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>域的重排序确保了在读一个对象的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>final</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>域之前，一定会先读这个包含这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>final</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的对象的引用。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>final</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>域为引用类型</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>final</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>域的重排序规则</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		在构造函数内对一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>final</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>引用的对象的成员域的写入与随后在构造函数外把这个被构造函数的引用赋值给一个引用变量，这两个操作不能重排序。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>as-if-serial</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>语义保证单线程内程序的执行结果不被改变，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>happens-before</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>关系保证正确同步的多线程程序的执行结果不被改变。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>JSR-133</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>对</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>JDK5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>之前的就内存模型的修补：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：增强</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>volatile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的内存语义</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：增强</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>final</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的内存语义</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1532,7 +3274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1549,12 +3291,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ConcurrencyTest/Thread_Test/java并发编程的艺术/java并发编程的艺术.xlsx
+++ b/ConcurrencyTest/Thread_Test/java并发编程的艺术/java并发编程的艺术.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
-    <sheet name="part two" sheetId="1" r:id="rId1"/>
-    <sheet name="part three" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="part 2" sheetId="1" r:id="rId1"/>
+    <sheet name="part 3" sheetId="2" r:id="rId2"/>
+    <sheet name="part 4" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -2975,6 +2975,1944 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>的内存语义</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="171449"/>
+          <a:ext cx="10991850" cy="10267951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	线程优先级不能作为程序正确性的依赖，操作系统可以完全不用理会</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>线程对于优先级的设定。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>jps</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	*显示线程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pid</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>jstack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	*打印堆栈信息</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将操作系统中的运行和就绪两个状态合并为称为运行状态。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>syn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>阻塞：阻塞状态</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lock</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>阻塞：等待状态	*使用了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LockSupport</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中的相关方法</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Daemon</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>线程</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Thread.setDaemon(true)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设置为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Daemon</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>线程。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Daemon</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>属性需要在启动线程之前设置，不能启动线程之后设置。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Daemon</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>线程中的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>final</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>块并不一定会执行。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>suspend:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>占用资源（锁），容易造成死锁</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>stop:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不会保证线程的资源正常释放</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	线程的安全中断通过标志位来实现。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>volatile</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>修饰的成员变量，告知程序任何对该变量的访问均需要从共享内存中获取，对它的改变必须同步刷新回共享内存，保证了所有线程对变量访问的可见性。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>syn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>修饰方法或同步块，确保多个线程同一时刻，只能有一个线程处于方法或者同步块中，保证了线程对变量的可见性和排他性。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	反编译命令：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>javap -v </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>类名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.class</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	同步块同步实现使用了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>monitorenter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>monitorexit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>指令。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	同步方法同步实现使用了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ACC_SYNCHRONIZED</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>来完成。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	*本质都是对一个对象的监视器进行获取。（具有排他性）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>线程通信</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	等待</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>通知机制	方法：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>notify,wait</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、使用以上方法需要先对调用对象加锁</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>wait</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>后，线程由</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RUNNING</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>变为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WAITING</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，并将当前线程放置到对象的等待队列。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>notify</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>调用后，需要调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>notify</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的线程释放锁之后，等待线程才有机会从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>wait</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>返回。（返回的前提是获得调用对象的锁）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>notify</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将一个线程从等待队列移到同步队列，状态由</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WAITING</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>变为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BLOCKED</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，获得锁之后变为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RUNNING</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>等待</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>通知的经典范式</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	等待方：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、获取对象锁</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、条件不满足，调用对象的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>wait</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法，被通知后仍要检查条件（循环）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、条件满足向下执行</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	通知方：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、获得对象的锁</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、改变条件</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、通知所有等待在对象上的线程</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>linux</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ab</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>压力测试工具安装：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:rPr>
+            <a:t>https://blog.csdn.net/Evan_QB/article/details/81216637</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" u="sng" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ab</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>压力测试工具使用：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:rPr>
+            <a:t>https://blog.csdn.net/blueheart20/article/details/52170790</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" u="sng" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>windows</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ab</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>压力测试工具下载：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" u="sng" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:rPr>
+            <a:t>https://www.apachehaus.com/cgi-bin/download.plx</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" u="sng" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	启动服务：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Application Identity Identity</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>or	httpd.exe -k start</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -3274,7 +5212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3291,7 +5229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -3313,5 +5251,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ConcurrencyTest/Thread_Test/java并发编程的艺术/java并发编程的艺术.xlsx
+++ b/ConcurrencyTest/Thread_Test/java并发编程的艺术/java并发编程的艺术.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="part 2" sheetId="1" r:id="rId1"/>
     <sheet name="part 3" sheetId="2" r:id="rId2"/>
     <sheet name="part 4" sheetId="3" r:id="rId3"/>
+    <sheet name="part 5" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -4913,6 +4914,2102 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>or	httpd.exe -k start</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="142875"/>
+          <a:ext cx="10839450" cy="12773026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lock</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	不要将获取锁的过程卸载</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>try</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>块中。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	队列同步器提供的模板方法分为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>类：独占式获取与释放同步状态、共享式获取与释放同步状态和查询同步队列中的等待线程情况。（独占与分享区别在于同一时刻是否能有多个线程同时获取到同步状态）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>独占式同步状态获取与释放</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	队列同步器的添加实现（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>acquire</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>addWaiter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>enq</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）：使用节点链表，不能使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LinkedList</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>维护节点（不能保证</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Node</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>正确的添加），保证正确添加的关键在于</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>compareAndSetTail</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>线程安全的添加节点</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、死循环正确添加节点（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>enq</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	队列同步器的出队实现（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>acquireQueued</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）：死循环中尝试获取同步状态，保证前驱节点是头结点才能够尝试获取同步状态。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	独占式同步状态获取和释放：在获取同步状态时，同步器维护一个同步队列，获取状态失败的线程都会被加入到队列中并在队列中进行自旋；移出队列的条件是前驱节点为头结点且成功获取了同步状态。在释放同步状态时，同步器调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tryRelease(int arg)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法释放同步状态，然后唤醒头结点的后继节点。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>acquire(int arg)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法调用流程：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	响应中断的同步状态获取过程：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>java5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>之前，阻塞在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>syn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上的线程被中断，中断标志位被修改，线程依旧会阻塞在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>syn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上，等待获取锁。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>java5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>之后，会立即返回，抛出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>InterruptedException</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	独占式超时同步状态</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>共享式同步状态获取与释放</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>acquireShared(int arg)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>共享式的获取同步状态</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>重入锁</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ReentrantLock</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>syn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>支持隐式的重进入，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ReentrantLock</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>支持重入锁。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>公平锁：先对锁进行获取的请求一定先被满足，反之为不公平锁。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>重进入是指任意线程在获取到锁之后能够再次获取该锁而不被阻塞。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ReentrantLock</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>通过组合自定义同步器来实现锁的获取与释放</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	非公平：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		获取锁：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ReentrantLock</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>nonfairTryAcquire</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		释放锁：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ReentrantLock</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tryRelease</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	公平：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		获取锁：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ReentrantLock</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tryAcquire</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		释放锁：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ReentrantLock</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tryRelease</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	公平性锁保证了锁的获取按照</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FIFO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>原则，代价是存在大量线程切换。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	非公平性锁可能造成线程饥饿，极少的线程切换，保证了更大的吞吐量。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>读写锁（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ReentrantReadWriteLock</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、公平性选择</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、重进入</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、锁降级（写锁降为读锁）不支持锁升级</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>读写状态设计：高</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>位表示读，低</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>位表示写。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>写锁：支持重进入的排它锁。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ReentrantReadWriteLock</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tryAcquire</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		存在读锁，邪所不能被获取</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		写锁获取，其他线程阻塞</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>读锁：支持重进入的共享锁</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ReentrantReadWriteLock</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tryAcquireShared</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LockSupport</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>定义了一组公共静态方法，用于阻塞和唤醒一个线程。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>park,unpark</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>等</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Condition</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>接口</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		实现等待</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>通知的两种方法：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>wait,notify,syn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（一个同步队列，一个等待队列）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Lock,Condition</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>接口（一个同步队列，多个等待队列）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	有界队列：当队列为空，队列的获取操作将会阻塞获取线程，直到队列中有新增元素。当队列满时，队列的插入操作将会阻塞插入进程，直到队列出现空位。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ConditionObject</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>是同步器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AbstractQueuedSynchronizer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的内部类，每个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Condition</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>对象都包含一个队列（用于实现等待</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>通知功能）。</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5212,7 +7309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5253,4 +7350,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ConcurrencyTest/Thread_Test/java并发编程的艺术/java并发编程的艺术.xlsx
+++ b/ConcurrencyTest/Thread_Test/java并发编程的艺术/java并发编程的艺术.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="part 2" sheetId="1" r:id="rId1"/>
     <sheet name="part 3" sheetId="2" r:id="rId2"/>
     <sheet name="part 4" sheetId="3" r:id="rId3"/>
     <sheet name="part 5" sheetId="4" r:id="rId4"/>
+    <sheet name="part 6" sheetId="5" r:id="rId5"/>
+    <sheet name="part 7" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -7011,6 +7013,580 @@
             </a:rPr>
             <a:t>通知功能）。</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="142875"/>
+          <a:ext cx="10972800" cy="7334250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ConcurrentHashMap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>线程安全且高效	锁分段技术</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ConcurrentHashMap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>是由</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Segment</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>数组结构和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>HashEntry</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>数组结构组成。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Segment</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>是一种可重入锁，结构与</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>HashMap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>类似，数组和链表构成，一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Segment</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>里包含一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>HashEntry</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>数组，用于存储键值对数据。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ConcurrentHashMap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>使用分段锁</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Segment</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>来保护不同段的数据。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ConcurrentHashMap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>扩容并不是对整个容器进行，而是对某个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>segment</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>进行扩容。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ConcurrentLinkedQueue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>是一个基于链接节点的无界线程安全队列</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>非阻塞队列</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>fork/join</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>框架和分治算法？</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	工作窃取算法：用于多个线程消费多个队列</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="142875"/>
+          <a:ext cx="10182225" cy="4895850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -7356,7 +7932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -7367,4 +7943,38 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ConcurrencyTest/Thread_Test/java并发编程的艺术/java并发编程的艺术.xlsx
+++ b/ConcurrencyTest/Thread_Test/java并发编程的艺术/java并发编程的艺术.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="part 2" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="part 5" sheetId="4" r:id="rId4"/>
     <sheet name="part 6" sheetId="5" r:id="rId5"/>
     <sheet name="part 7" sheetId="6" r:id="rId6"/>
+    <sheet name="part 8" sheetId="7" r:id="rId7"/>
+    <sheet name="part 9" sheetId="8" r:id="rId8"/>
+    <sheet name="part 10" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -7587,6 +7590,3365 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="142875"/>
+          <a:ext cx="11039475" cy="5448300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CountDownLatch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>允许一个或多个线程等待其他线程完成操作。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>countDown</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>减少计数器，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>await</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>阻碍线程。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CyclicBarrier</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>让一组线程到达一个屏障时被阻塞，直到最后一个线程到达屏障时，屏障才会开门。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		参数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为一个线程，当所有线程到达屏障时执行，该线程执行完后执行屏障后操作。	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CyclicBarrier</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>可以重新计数，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CountDownLatch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不支持。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Semaphore</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>是用来控制同时访问特定资源的线程数量，通过协调各个线程，以保证合理的使用公共资源。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>acquire,release</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		应用于流量控制</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>线程间交换数据的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Exchanger</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	应用于遗传算法</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		应用于两个线程之间的信息交换</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>exchange</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法参数为数据包</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="133350"/>
+          <a:ext cx="10753725" cy="6667500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	线程池</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		核心线程池是否已满</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>队列是否已满</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BlockingQueue--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>线程池是否已满</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>按照策略执行无法处理的任务</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RejectedExecutionHandler.rejectedExecution()</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	线程池中线程执行任务情况：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>execute</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>创建一个线程时，会让这个线程执行当前任务</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、这个线程执行完任务后，会反复从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>blockingQueue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>获取任务执行。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1corePoolSize</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>核心线程数量，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>prestartallcorethreads</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>创建所有的核心线程。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2runnableTaskQueue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>任务队列：用于保存等待执行的任务的阻塞队列。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ArrayBlockingQueue\</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LinkedBlockingQueue\</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>newFixedThreadPool,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>SingleThreadExecutor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>使用了这个队列</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SynchronousQueue\</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>newCachedTHreadPool</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>使用了这个队列</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		PriorityBlockingQueue\</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3maximumPoolSize</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>线程池最大数量：线程池创建的最大线程数。*如果使用了误解的任务队列这个参数没有效果</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4ThreadFactory</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：用于设置创建线程的工厂，给每个创建出来的线程设置名称。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5RejectedExecutionHandler</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>饱和策略：当队列和线程池都满了，需要一种策略来处理提交的新任务，有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中策略。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AbortPolicy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：直接抛出异常、默认</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CallerRunsPolicy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：只用调用者所在线程来运行任务</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DiscardOldestPolisy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：丢弃队列里最近的一个任务，并执行当前任务。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DiscardPolicy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：不处理，丢弃掉</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、实现</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RejectedExecutionHandler</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>接口自定义策略。记录日志或持久化存储不能处理的任务。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>keepAliveTime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>线程活动保持时间：线程池的工作线程空闲后，保持存活的时间。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TimeUnit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>线程活动保持时间的单位</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>线程池的任务提交</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>execute</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>提交不需要返回值的任务</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>submit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法用于提交需要返回值的任务，返回一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>future</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>类型的对象。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>get</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法获取返回值，该方法会阻塞当前线程直到任务完成。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>关闭线程池</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shutdown</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中断没有正在执行任务的线程</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>shutdownNow</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>返回等待执行任务的列表</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		关闭线程池原理是遍历工作线程，调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>interrupt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>方法来中断线程，所以无法响应中断的任务可能永远无法终止</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="171450"/>
+          <a:ext cx="10734675" cy="8096250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Executor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>接口将任务的提交与任务的执行分离开来。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ThreadPoolExecutor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>是线程池的核心实现类，用来执行被提交的任务。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ScheduledThreadPoolExecutor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>定期执行命令。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>future</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>接口和实现该接口的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FutureTask</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>类代表异步计算的结果。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ThreadPoolExecutor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>类型：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SingleThreadExecutor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：适用于需要保证顺序地执行各个任务*核心线程数为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FixedThreadPool</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：适用于负载负载比较重的服务器*核心线程数固定</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CachedThreadPool</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：大小无界的线程池，适用于执行很多的短期异步任务的小程序*核心线程数为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ScheduledThreadPoolExecutorl</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>类型：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ScheduledThreadPoolExecutor</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SingleThreadShceduledExecutor</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Executors</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>提供将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Runnable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>包装成一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Callable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>API</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>callable(1)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不带返回值</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>callable(1,2)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>带返回值，返回值类型为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ThreadPoolExecutor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>详解</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>corePool</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：核心线程池的大小</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>maximumPool</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：最大线程池的大小</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>BlokingQueue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：用来展示保存任务的工作队列</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RejectedExecutionHandler</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>：饱和策略</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FixedThreadPool</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	特点：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、由于使用无界队列，线程池中的线程数不会超过核心线程数</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、由于使用无界队列，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>maximumPoolSize</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>无效</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、由于使用无界队列，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>keepAliveTime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>无效</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、由于使用无界队列，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>FixedThreadPool</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>不会拒绝任务</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ScheduledThreadPoolExecutor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>详解</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	继承自</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ThreadPoolExecutor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，功能与</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Timer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>类似。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Timer</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>对应单个后台线程，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ScheduledThreadPoolExecutor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>可以指定多个对应的后台线程数</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	为了实现周期性的执行任务</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DelayQueue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作为任务队列</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、获取任务的方式不同</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>、执行周期任务后，增加了额外的处理</a:t>
+          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -7949,7 +11311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -7977,4 +11339,55 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>